--- a/NEW/B-MF 2023-10-15/CB.xlsx
+++ b/NEW/B-MF 2023-10-15/CB.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\GitHub\SMILE_to_Feature\NEW\B-MF 2023-10-15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2CBB4C8-D056-4A65-9E4C-A2596C09F556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F419C1-DB78-4E55-9DA0-F42A8F417CD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CB" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="11"/>
@@ -628,33 +628,12 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFC6E0B4"/>
           <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -988,12 +967,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1052,16 +1031,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.151994480469799</v>
+        <v>22.494721960923599</v>
       </c>
       <c r="C3">
-        <v>6.1719131388284101</v>
+        <v>6.32058597963346</v>
       </c>
       <c r="D3">
-        <v>33.1664312373914</v>
+        <v>31.634118838709799</v>
       </c>
       <c r="E3">
-        <v>0.76125472859361498</v>
+        <v>0.71877987134386301</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -1075,22 +1054,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="B4">
-        <v>30.365567825852199</v>
+        <v>20.610195304005799</v>
       </c>
       <c r="C4">
-        <v>7.0117737242260301</v>
+        <v>5.7962736667364503</v>
       </c>
       <c r="D4">
-        <v>40.612471619018301</v>
+        <v>28.969220437693501</v>
       </c>
       <c r="E4">
-        <v>0.63725777717917698</v>
+        <v>0.74463113224501198</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -1104,16 +1083,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>26.910757299350401</v>
+        <v>23.511154104794699</v>
       </c>
       <c r="C5">
-        <v>6.5046886879044701</v>
+        <v>6.5805947512228897</v>
       </c>
       <c r="D5">
-        <v>35.491660562218101</v>
+        <v>32.730541868207602</v>
       </c>
       <c r="E5">
-        <v>0.72604573966075003</v>
+        <v>0.69427541785841396</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -1130,16 +1109,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>26.069143179487298</v>
+        <v>20.571786677768099</v>
       </c>
       <c r="C6">
-        <v>6.4243882091047197</v>
+        <v>5.7458749509839304</v>
       </c>
       <c r="D6">
-        <v>34.308054184565798</v>
+        <v>29.075946555965899</v>
       </c>
       <c r="E6">
-        <v>0.74453614183841199</v>
+        <v>0.76242395794239504</v>
       </c>
       <c r="F6" t="s">
         <v>7</v>
@@ -1153,22 +1132,22 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B7">
-        <v>30.5989138986805</v>
+        <v>20.928431716345798</v>
       </c>
       <c r="C7">
-        <v>7.1167004038717696</v>
+        <v>5.7468511913903599</v>
       </c>
       <c r="D7">
-        <v>42.036430438030301</v>
+        <v>28.716284246562001</v>
       </c>
       <c r="E7">
-        <v>0.61137482639777696</v>
+        <v>0.74907102014411198</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -1182,16 +1161,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.552576885630199</v>
+        <v>21.704451914985501</v>
       </c>
       <c r="C8">
-        <v>6.6870448492203796</v>
+        <v>6.0430087431759896</v>
       </c>
       <c r="D8">
-        <v>36.297732798306498</v>
+        <v>30.4051154918977</v>
       </c>
       <c r="E8">
-        <v>0.71346055285626198</v>
+        <v>0.73617418752090302</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
@@ -1208,16 +1187,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.170373312573801</v>
+        <v>25.435623601571798</v>
       </c>
       <c r="C9">
-        <v>7.1829464503992604</v>
+        <v>7.1703553031066098</v>
       </c>
       <c r="D9">
-        <v>38.1626301099598</v>
+        <v>35.3435164458514</v>
       </c>
       <c r="E9">
-        <v>0.68390772066177596</v>
+        <v>0.64896175674510803</v>
       </c>
       <c r="F9" t="s">
         <v>7</v>
@@ -1231,25 +1210,25 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="B10">
-        <v>30.9424900373482</v>
+        <v>21.036670554381899</v>
       </c>
       <c r="C10">
-        <v>7.1334478548153601</v>
+        <v>5.8642534616824804</v>
       </c>
       <c r="D10">
-        <v>41.699655042950397</v>
+        <v>28.728201548040801</v>
       </c>
       <c r="E10">
-        <v>0.61757683375417505</v>
+        <v>0.74886270511376096</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
@@ -1260,16 +1239,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.2920140459759</v>
+        <v>25.949316519226802</v>
       </c>
       <c r="C11">
-        <v>7.3637958888382196</v>
+        <v>7.3093097631044701</v>
       </c>
       <c r="D11">
-        <v>39.548300752678898</v>
+        <v>35.912086602821297</v>
       </c>
       <c r="E11">
-        <v>0.65984169689907501</v>
+        <v>0.63195133320679997</v>
       </c>
       <c r="F11" t="s">
         <v>7</v>
@@ -1286,16 +1265,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>33.139502369624999</v>
+        <v>24.087794782038401</v>
       </c>
       <c r="C12">
-        <v>8.1666467204126008</v>
+        <v>6.7800851672590099</v>
       </c>
       <c r="D12">
-        <v>42.847185171759897</v>
+        <v>33.578352560773098</v>
       </c>
       <c r="E12">
-        <v>0.60154261078972104</v>
+        <v>0.68315001676383302</v>
       </c>
       <c r="F12" t="s">
         <v>7</v>
@@ -1309,25 +1288,25 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="B13">
-        <v>31.780374072473801</v>
+        <v>21.129696934493602</v>
       </c>
       <c r="C13">
-        <v>7.4003570748833098</v>
+        <v>5.8595014092830997</v>
       </c>
       <c r="D13">
-        <v>42.385175284612998</v>
+        <v>28.739530582921699</v>
       </c>
       <c r="E13">
-        <v>0.60489981294179695</v>
+        <v>0.74866459287457898</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
         <v>9</v>
@@ -1338,16 +1317,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>33.7656600577983</v>
+        <v>24.8883196635601</v>
       </c>
       <c r="C14">
-        <v>8.2331441975407706</v>
+        <v>6.9910259735105402</v>
       </c>
       <c r="D14">
-        <v>43.463229490376001</v>
+        <v>34.445291674278401</v>
       </c>
       <c r="E14">
-        <v>0.58916313555572297</v>
+        <v>0.661402534713872</v>
       </c>
       <c r="F14" t="s">
         <v>7</v>
@@ -1364,16 +1343,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.131452941780498</v>
+        <v>23.015564705807201</v>
       </c>
       <c r="C15">
-        <v>6.9277323953439902</v>
+        <v>6.4301281495784304</v>
       </c>
       <c r="D15">
-        <v>36.707736755237299</v>
+        <v>31.979381990979402</v>
       </c>
       <c r="E15">
-        <v>0.70754940495997098</v>
+        <v>0.71260775012308197</v>
       </c>
       <c r="F15" t="s">
         <v>7</v>
@@ -1387,25 +1366,25 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="B16">
-        <v>31.842647155480101</v>
+        <v>21.215224127790599</v>
       </c>
       <c r="C16">
-        <v>7.2839785588198804</v>
+        <v>5.9643061691344004</v>
       </c>
       <c r="D16">
-        <v>42.201273082145804</v>
+        <v>29.431621115910499</v>
       </c>
       <c r="E16">
-        <v>0.60832092255130399</v>
+        <v>0.73641378004082803</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
         <v>9</v>
@@ -1416,16 +1395,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.253538497646598</v>
+        <v>23.851641084173298</v>
       </c>
       <c r="C17">
-        <v>7.10749418317757</v>
+        <v>6.6552686195974902</v>
       </c>
       <c r="D17">
-        <v>38.200837599076301</v>
+        <v>32.862889641897603</v>
       </c>
       <c r="E17">
-        <v>0.68262611297821196</v>
+        <v>0.69179799031779599</v>
       </c>
       <c r="F17" t="s">
         <v>7</v>
@@ -1442,16 +1421,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.531426525672799</v>
+        <v>22.1620942268375</v>
       </c>
       <c r="C18">
-        <v>7.0129586007437101</v>
+        <v>6.1794589858286804</v>
       </c>
       <c r="D18">
-        <v>36.989395361186403</v>
+        <v>30.70992243561</v>
       </c>
       <c r="E18">
-        <v>0.70304423784326997</v>
+        <v>0.73497163454165704</v>
       </c>
       <c r="F18" t="s">
         <v>7</v>
@@ -1465,25 +1444,25 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B19">
-        <v>31.904186171739401</v>
+        <v>21.292656421052701</v>
       </c>
       <c r="C19">
-        <v>7.4786109970782801</v>
+        <v>5.9735355485074102</v>
       </c>
       <c r="D19">
-        <v>42.544934630471701</v>
+        <v>29.1245705883324</v>
       </c>
       <c r="E19">
-        <v>0.60191575516229301</v>
+        <v>0.74188490968311105</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H19" t="s">
         <v>9</v>
@@ -1494,16 +1473,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.611675326514899</v>
+        <v>23.058587168447499</v>
       </c>
       <c r="C20">
-        <v>7.1861271331963703</v>
+        <v>6.4038502627605904</v>
       </c>
       <c r="D20">
-        <v>38.458505770991202</v>
+        <v>31.630430193143599</v>
       </c>
       <c r="E20">
-        <v>0.67833024138766296</v>
+        <v>0.71448155693835602</v>
       </c>
       <c r="F20" t="s">
         <v>7</v>
@@ -1520,16 +1499,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.505588354811501</v>
+        <v>17.585334312348099</v>
       </c>
       <c r="C21">
-        <v>5.32731892117173</v>
+        <v>5.0234757774925001</v>
       </c>
       <c r="D21">
-        <v>28.822187959055501</v>
+        <v>25.374553259044099</v>
       </c>
       <c r="E21">
-        <v>0.819701885808375</v>
+        <v>0.81906119041118097</v>
       </c>
       <c r="F21" t="s">
         <v>15</v>
@@ -1543,25 +1522,25 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B22">
-        <v>32.288059441189397</v>
+        <v>21.856063512389401</v>
       </c>
       <c r="C22">
-        <v>7.4954739974982196</v>
+        <v>6.0399486120252002</v>
       </c>
       <c r="D22">
-        <v>42.365112292334402</v>
+        <v>29.2756174458437</v>
       </c>
       <c r="E22">
-        <v>0.60527376519537102</v>
+        <v>0.73920067629723596</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H22" t="s">
         <v>9</v>
@@ -1572,16 +1551,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.573000114945199</v>
+        <v>18.326798734089</v>
       </c>
       <c r="C23">
-        <v>5.7186508487013601</v>
+        <v>5.21348773169548</v>
       </c>
       <c r="D23">
-        <v>31.9494022627728</v>
+        <v>26.167584620438401</v>
       </c>
       <c r="E23">
-        <v>0.77800106304894601</v>
+        <v>0.80458799355020705</v>
       </c>
       <c r="F23" t="s">
         <v>15</v>
@@ -1598,16 +1577,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.726081705357501</v>
+        <v>16.106817446461999</v>
       </c>
       <c r="C24">
-        <v>7.0818178543084302</v>
+        <v>4.5674289240477304</v>
       </c>
       <c r="D24">
-        <v>37.617932636700097</v>
+        <v>23.080785876521901</v>
       </c>
       <c r="E24">
-        <v>0.69286653381448504</v>
+        <v>0.85029506982671899</v>
       </c>
       <c r="F24" t="s">
         <v>15</v>
@@ -1621,25 +1600,25 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>32.409042275312501</v>
+        <v>21.873368186954899</v>
       </c>
       <c r="C25">
-        <v>7.5336700210382199</v>
+        <v>6.0350779117004896</v>
       </c>
       <c r="D25">
-        <v>43.160224589403597</v>
+        <v>29.263576942539299</v>
       </c>
       <c r="E25">
-        <v>0.59031821027498399</v>
+        <v>0.73941515576170203</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="s">
         <v>9</v>
@@ -1650,16 +1629,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>29.675924265664801</v>
+        <v>17.260127594560601</v>
       </c>
       <c r="C26">
-        <v>7.2208157617617301</v>
+        <v>4.8609587215782799</v>
       </c>
       <c r="D26">
-        <v>38.8106982764888</v>
+        <v>24.442780701807699</v>
       </c>
       <c r="E26">
-        <v>0.67241173707073698</v>
+        <v>0.82949968245824401</v>
       </c>
       <c r="F26" t="s">
         <v>15</v>
@@ -1676,16 +1655,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>25.5087779967388</v>
+        <v>17.935673648848699</v>
       </c>
       <c r="C27">
-        <v>6.3012099997637199</v>
+        <v>5.0695571385113398</v>
       </c>
       <c r="D27">
-        <v>33.521184796149299</v>
+        <v>25.068919645510999</v>
       </c>
       <c r="E27">
-        <v>0.75612009751102904</v>
+        <v>0.82339371478040702</v>
       </c>
       <c r="F27" t="s">
         <v>15</v>
@@ -1699,25 +1678,25 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B28">
-        <v>32.414861180116297</v>
+        <v>22.213521234055801</v>
       </c>
       <c r="C28">
-        <v>7.5546428438190496</v>
+        <v>6.2042708021984003</v>
       </c>
       <c r="D28">
-        <v>42.294004564014799</v>
+        <v>30.379881600517098</v>
       </c>
       <c r="E28">
-        <v>0.60659770977648597</v>
+        <v>0.71915513482621196</v>
       </c>
       <c r="F28" t="s">
         <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
         <v>9</v>
@@ -1728,16 +1707,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>26.974542840349699</v>
+        <v>19.0476271347056</v>
       </c>
       <c r="C29">
-        <v>6.5689309647365004</v>
+        <v>5.3558750281852303</v>
       </c>
       <c r="D29">
-        <v>35.583715595638303</v>
+        <v>26.322844535383901</v>
       </c>
       <c r="E29">
-        <v>0.72462278151271198</v>
+        <v>0.802262241369051</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
@@ -1754,16 +1733,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>27.3808552746241</v>
+        <v>21.313645269181698</v>
       </c>
       <c r="C30">
-        <v>6.7843348527562801</v>
+        <v>6.1165850118844398</v>
       </c>
       <c r="D30">
-        <v>35.775519045524597</v>
+        <v>29.7946070661013</v>
       </c>
       <c r="E30">
-        <v>0.72221475164696503</v>
+        <v>0.75053464330489394</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
@@ -1777,25 +1756,25 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="B31">
-        <v>32.837602214793399</v>
+        <v>22.276694129532899</v>
       </c>
       <c r="C31">
-        <v>7.6398148246275897</v>
+        <v>6.2305007218699302</v>
       </c>
       <c r="D31">
-        <v>42.852359998091103</v>
+        <v>30.3079783459449</v>
       </c>
       <c r="E31">
-        <v>0.59614193727254905</v>
+        <v>0.72048297164097896</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
         <v>9</v>
@@ -1806,16 +1785,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>28.579096007061199</v>
+        <v>21.979842994494</v>
       </c>
       <c r="C32">
-        <v>6.9799323150075896</v>
+        <v>6.2816684028218299</v>
       </c>
       <c r="D32">
-        <v>37.234915534923097</v>
+        <v>30.478382148878499</v>
       </c>
       <c r="E32">
-        <v>0.69847302829686697</v>
+        <v>0.73490118301960095</v>
       </c>
       <c r="F32" t="s">
         <v>15</v>
@@ -1832,16 +1811,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>27.4905763668764</v>
+        <v>17.265679145633701</v>
       </c>
       <c r="C33">
-        <v>6.79324884578726</v>
+        <v>4.8599281070854001</v>
       </c>
       <c r="D33">
-        <v>35.721121297010903</v>
+        <v>23.945947456120301</v>
       </c>
       <c r="E33">
-        <v>0.72305887098899002</v>
+        <v>0.83886162880484805</v>
       </c>
       <c r="F33" t="s">
         <v>15</v>
@@ -1855,25 +1834,25 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B34">
-        <v>32.937778193571397</v>
+        <v>22.382061695142799</v>
       </c>
       <c r="C34">
-        <v>7.6728690625994496</v>
+        <v>6.26425198306654</v>
       </c>
       <c r="D34">
-        <v>42.870057661253298</v>
+        <v>31.245724261100001</v>
       </c>
       <c r="E34">
-        <v>0.59580828844405098</v>
+        <v>0.702918556351671</v>
       </c>
       <c r="F34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H34" t="s">
         <v>9</v>
@@ -1884,16 +1863,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>28.6373043193474</v>
+        <v>18.4593255364342</v>
       </c>
       <c r="C35">
-        <v>6.9820155350381903</v>
+        <v>5.1686949629908803</v>
       </c>
       <c r="D35">
-        <v>37.260618083879201</v>
+        <v>25.304382579653598</v>
       </c>
       <c r="E35">
-        <v>0.69805660803740099</v>
+        <v>0.81726764147653097</v>
       </c>
       <c r="F35" t="s">
         <v>15</v>
@@ -1910,16 +1889,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>31.394943444485701</v>
+        <v>19.4334955849219</v>
       </c>
       <c r="C36">
-        <v>7.7508141064049898</v>
+        <v>5.5344279647236698</v>
       </c>
       <c r="D36">
-        <v>40.4153075126871</v>
+        <v>26.958364175333799</v>
       </c>
       <c r="E36">
-        <v>0.64548952882767396</v>
+        <v>0.79576884631519496</v>
       </c>
       <c r="F36" t="s">
         <v>15</v>
@@ -1933,25 +1912,25 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B37">
-        <v>33.161084788223299</v>
+        <v>22.454723345541002</v>
       </c>
       <c r="C37">
-        <v>7.73072614982049</v>
+        <v>6.2461543970488904</v>
       </c>
       <c r="D37">
-        <v>43.679210364236503</v>
+        <v>31.1293713358336</v>
       </c>
       <c r="E37">
-        <v>0.58040642896490602</v>
+        <v>0.705126982418808</v>
       </c>
       <c r="F37" t="s">
         <v>16</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H37" t="s">
         <v>9</v>
@@ -1962,16 +1941,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>32.009664903243397</v>
+        <v>20.510052083646599</v>
       </c>
       <c r="C38">
-        <v>7.8131809379501398</v>
+        <v>5.8070757963097899</v>
       </c>
       <c r="D38">
-        <v>41.163850647965504</v>
+        <v>28.138360919614701</v>
       </c>
       <c r="E38">
-        <v>0.63148310132219299</v>
+        <v>0.77404520538950705</v>
       </c>
       <c r="F38" t="s">
         <v>15</v>
@@ -1988,16 +1967,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>28.232560339329901</v>
+        <v>14.3930680990343</v>
       </c>
       <c r="C39">
-        <v>6.9643561579501698</v>
+        <v>4.1508249696884496</v>
       </c>
       <c r="D39">
-        <v>37.4203126876113</v>
+        <v>20.732819116568301</v>
       </c>
       <c r="E39">
-        <v>0.69608501330049599</v>
+        <v>0.879204255060553</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
@@ -2011,22 +1990,22 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="B40">
-        <v>33.207455582199501</v>
+        <v>22.707369239845299</v>
       </c>
       <c r="C40">
-        <v>7.75976546728762</v>
+        <v>6.2804384971070899</v>
       </c>
       <c r="D40">
-        <v>43.490102228127903</v>
+        <v>30.658512950439999</v>
       </c>
       <c r="E40">
-        <v>0.58403180536722998</v>
+        <v>0.71397993152512895</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
@@ -2040,16 +2019,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>29.067856726526401</v>
+        <v>15.721788590103801</v>
       </c>
       <c r="C41">
-        <v>7.0782189305677798</v>
+        <v>4.4935106680872501</v>
       </c>
       <c r="D41">
-        <v>38.636573846970897</v>
+        <v>22.559737224827</v>
       </c>
       <c r="E41">
-        <v>0.67534459652781398</v>
+        <v>0.85475805942939698</v>
       </c>
       <c r="F41" t="s">
         <v>16</v>
@@ -2066,16 +2045,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>22.327476435072601</v>
+        <v>14.136168838345601</v>
       </c>
       <c r="C42">
-        <v>5.5440078365470802</v>
+        <v>4.0691981178949801</v>
       </c>
       <c r="D42">
-        <v>29.838103093373899</v>
+        <v>20.110257178045</v>
       </c>
       <c r="E42">
-        <v>0.80676770475716397</v>
+        <v>0.88634980946892294</v>
       </c>
       <c r="F42" t="s">
         <v>16</v>
@@ -2089,22 +2068,22 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B43">
-        <v>33.2242161292316</v>
+        <v>22.732235126132199</v>
       </c>
       <c r="C43">
-        <v>7.7370822920418698</v>
+        <v>6.2947947029100497</v>
       </c>
       <c r="D43">
-        <v>42.869269565744503</v>
+        <v>30.2265253228719</v>
       </c>
       <c r="E43">
-        <v>0.59582314910727396</v>
+        <v>0.72198336290685605</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G43" t="s">
         <v>13</v>
@@ -2118,16 +2097,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>23.935094713228601</v>
+        <v>15.534874457575199</v>
       </c>
       <c r="C44">
-        <v>5.83756101408287</v>
+        <v>4.4272587761726099</v>
       </c>
       <c r="D44">
-        <v>32.281952963997703</v>
+        <v>22.1072404121145</v>
       </c>
       <c r="E44">
-        <v>0.77335558541692095</v>
+        <v>0.86052607018000904</v>
       </c>
       <c r="F44" t="s">
         <v>16</v>
@@ -2144,16 +2123,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>28.062989664772498</v>
+        <v>15.958420730560899</v>
       </c>
       <c r="C45">
-        <v>6.9499047585015603</v>
+        <v>4.5897334342235601</v>
       </c>
       <c r="D45">
-        <v>36.998041675123702</v>
+        <v>21.986875017489201</v>
       </c>
       <c r="E45">
-        <v>0.70290539411216302</v>
+        <v>0.86414928314642803</v>
       </c>
       <c r="F45" t="s">
         <v>16</v>
@@ -2167,25 +2146,25 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B46">
-        <v>33.308679678005198</v>
+        <v>22.7561151371501</v>
       </c>
       <c r="C46">
-        <v>7.7651848562355497</v>
+        <v>6.2800769123404399</v>
       </c>
       <c r="D46">
-        <v>43.226476620730899</v>
+        <v>29.961908738162801</v>
       </c>
       <c r="E46">
-        <v>0.58905950121845796</v>
+        <v>0.72682982073629399</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H46" t="s">
         <v>9</v>
@@ -2196,16 +2175,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>29.082608689462699</v>
+        <v>17.2431489234773</v>
       </c>
       <c r="C47">
-        <v>7.1060690367653399</v>
+        <v>4.9246371439921504</v>
       </c>
       <c r="D47">
-        <v>38.427317807049697</v>
+        <v>24.124618035274501</v>
       </c>
       <c r="E47">
-        <v>0.67885174667291703</v>
+        <v>0.833909473700846</v>
       </c>
       <c r="F47" t="s">
         <v>16</v>
@@ -2222,16 +2201,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>26.960649069989199</v>
+        <v>15.5922774288453</v>
       </c>
       <c r="C48">
-        <v>6.68565082160515</v>
+        <v>4.4904367927402404</v>
       </c>
       <c r="D48">
-        <v>35.211702304479701</v>
+        <v>21.579852629555202</v>
       </c>
       <c r="E48">
-        <v>0.73090146390705302</v>
+        <v>0.86913248130810705</v>
       </c>
       <c r="F48" t="s">
         <v>16</v>
@@ -2245,25 +2224,25 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <v>33.318774768745698</v>
+        <v>23.2284557151483</v>
       </c>
       <c r="C49">
-        <v>7.7616831209579997</v>
+        <v>6.4268797403062301</v>
       </c>
       <c r="D49">
-        <v>43.479202506348201</v>
+        <v>30.827322700586301</v>
       </c>
       <c r="E49">
-        <v>0.58424028358174795</v>
+        <v>0.71082153290740302</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H49" t="s">
         <v>9</v>
@@ -2274,16 +2253,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>28.236069946269598</v>
+        <v>17.119513086105901</v>
       </c>
       <c r="C50">
-        <v>6.9010715941456198</v>
+        <v>4.8777253822534403</v>
       </c>
       <c r="D50">
-        <v>36.926917225862098</v>
+        <v>23.719544611730502</v>
       </c>
       <c r="E50">
-        <v>0.70344071508891803</v>
+        <v>0.83944025744975204</v>
       </c>
       <c r="F50" t="s">
         <v>16</v>
@@ -2300,16 +2279,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>28.5779139592779</v>
+        <v>17.1078034290713</v>
       </c>
       <c r="C51">
-        <v>7.0816793579401001</v>
+        <v>4.9126407997273498</v>
       </c>
       <c r="D51">
-        <v>37.379087659005101</v>
+        <v>23.809436324098101</v>
       </c>
       <c r="E51">
-        <v>0.69675427561981396</v>
+        <v>0.84069362820298099</v>
       </c>
       <c r="F51" t="s">
         <v>16</v>
@@ -2323,25 +2302,25 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="B52">
-        <v>33.337753451390903</v>
+        <v>23.233911099636401</v>
       </c>
       <c r="C52">
-        <v>7.7627546843074997</v>
+        <v>6.4037623866127698</v>
       </c>
       <c r="D52">
-        <v>43.1106734151899</v>
+        <v>30.131798658597798</v>
       </c>
       <c r="E52">
-        <v>0.59125836111266294</v>
+        <v>0.72372318062782004</v>
       </c>
       <c r="F52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H52" t="s">
         <v>9</v>
@@ -2352,16 +2331,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>29.530844713405699</v>
+        <v>18.1771874123652</v>
       </c>
       <c r="C53">
-        <v>7.2206919696677598</v>
+        <v>5.1793435191916597</v>
       </c>
       <c r="D53">
-        <v>38.649401181348502</v>
+        <v>25.4424636859301</v>
       </c>
       <c r="E53">
-        <v>0.67512898969192703</v>
+        <v>0.815267930249305</v>
       </c>
       <c r="F53" t="s">
         <v>16</v>
@@ -2378,16 +2357,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>28.511154231759399</v>
+        <v>16.136599400484901</v>
       </c>
       <c r="C54">
-        <v>7.0379981680761796</v>
+        <v>4.6321943219595001</v>
       </c>
       <c r="D54">
-        <v>36.694774224516003</v>
+        <v>22.2660217006305</v>
       </c>
       <c r="E54">
-        <v>0.70775591349583999</v>
+        <v>0.86067784768934796</v>
       </c>
       <c r="F54" t="s">
         <v>16</v>
@@ -2401,25 +2380,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <v>33.342567729916901</v>
+        <v>23.2911210629658</v>
       </c>
       <c r="C55">
-        <v>7.7767424165783696</v>
+        <v>6.4234447294122603</v>
       </c>
       <c r="D55">
-        <v>43.360077046815697</v>
+        <v>30.9971871708129</v>
       </c>
       <c r="E55">
-        <v>0.58651538137372194</v>
+        <v>0.70762589499420603</v>
       </c>
       <c r="F55" t="s">
         <v>16</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
         <v>9</v>
@@ -2430,16 +2409,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>29.470659321008501</v>
+        <v>17.567503732980999</v>
       </c>
       <c r="C56">
-        <v>7.1834355057080597</v>
+        <v>4.9904444034500504</v>
       </c>
       <c r="D56">
-        <v>38.090823311121497</v>
+        <v>24.264906766745199</v>
       </c>
       <c r="E56">
-        <v>0.68445148580868798</v>
+        <v>0.8319721681851</v>
       </c>
       <c r="F56" t="s">
         <v>16</v>
@@ -2456,16 +2435,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>27.979190236348298</v>
+        <v>12.8033975232172</v>
       </c>
       <c r="C57">
-        <v>6.9153113931179897</v>
+        <v>3.7144586039404599</v>
       </c>
       <c r="D57">
-        <v>37.178288015178701</v>
+        <v>18.445663247736</v>
       </c>
       <c r="E57">
-        <v>0.70000358334705703</v>
+        <v>0.90438556338237897</v>
       </c>
       <c r="F57" t="s">
         <v>17</v>
@@ -2479,25 +2458,25 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>33.372058936809204</v>
+        <v>23.346104991754601</v>
       </c>
       <c r="C58">
-        <v>7.7623221640128</v>
+        <v>6.5451423645273898</v>
       </c>
       <c r="D58">
-        <v>42.575152642797597</v>
+        <v>31.858148978238201</v>
       </c>
       <c r="E58">
-        <v>0.60135006682835102</v>
+        <v>0.69115867173159495</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G58" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H58" t="s">
         <v>9</v>
@@ -2508,16 +2487,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>28.7394270035734</v>
+        <v>14.428404361842899</v>
       </c>
       <c r="C59">
-        <v>7.0123205294710598</v>
+        <v>4.1209371214304404</v>
       </c>
       <c r="D59">
-        <v>38.276372562889797</v>
+        <v>20.907390805764699</v>
       </c>
       <c r="E59">
-        <v>0.681369777910518</v>
+        <v>0.875254857350799</v>
       </c>
       <c r="F59" t="s">
         <v>17</v>
@@ -2534,16 +2513,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>27.4795692969805</v>
+        <v>15.2364177906633</v>
       </c>
       <c r="C60">
-        <v>6.8193253548878898</v>
+        <v>4.4406338519511399</v>
       </c>
       <c r="D60">
-        <v>36.7230633801015</v>
+        <v>21.513391619856399</v>
       </c>
       <c r="E60">
-        <v>0.70730513948878004</v>
+        <v>0.86993732407402002</v>
       </c>
       <c r="F60" t="s">
         <v>17</v>
@@ -2557,25 +2536,25 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B61">
-        <v>33.4598474525745</v>
+        <v>23.390254353371201</v>
       </c>
       <c r="C61">
-        <v>7.7927647024380997</v>
+        <v>6.5314592671401996</v>
       </c>
       <c r="D61">
-        <v>42.817733025147298</v>
+        <v>32.062384782580203</v>
       </c>
       <c r="E61">
-        <v>0.59679435091565503</v>
+        <v>0.68718614702535497</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
       </c>
       <c r="G61" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
         <v>9</v>
@@ -2586,16 +2565,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>28.3644926719323</v>
+        <v>16.311173293331802</v>
       </c>
       <c r="C62">
-        <v>6.9511824833259697</v>
+        <v>4.7117618149082103</v>
       </c>
       <c r="D62">
-        <v>37.958938338122501</v>
+        <v>23.197067955778</v>
       </c>
       <c r="E62">
-        <v>0.68663280184424302</v>
+        <v>0.84643573727797805</v>
       </c>
       <c r="F62" t="s">
         <v>17</v>
@@ -2612,16 +2591,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>28.1962951932979</v>
+        <v>18.258821122911701</v>
       </c>
       <c r="C63">
-        <v>6.9902831691785696</v>
+        <v>5.2798784332592898</v>
       </c>
       <c r="D63">
-        <v>37.184633583489997</v>
+        <v>25.152615968028499</v>
       </c>
       <c r="E63">
-        <v>0.69990116818415504</v>
+        <v>0.82221249344370795</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -2635,25 +2614,25 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B64">
-        <v>33.475294506893803</v>
+        <v>23.495441078133101</v>
       </c>
       <c r="C64">
-        <v>7.7768073915749296</v>
+        <v>6.5011465868807896</v>
       </c>
       <c r="D64">
-        <v>43.254087438137603</v>
+        <v>30.832738986304701</v>
       </c>
       <c r="E64">
-        <v>0.58853435886547201</v>
+        <v>0.71071990807207097</v>
       </c>
       <c r="F64" t="s">
         <v>15</v>
       </c>
       <c r="G64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H64" t="s">
         <v>9</v>
@@ -2664,16 +2643,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>29.198527271078198</v>
+        <v>19.276277896680298</v>
       </c>
       <c r="C65">
-        <v>7.14417962880038</v>
+        <v>5.5329312195129097</v>
       </c>
       <c r="D65">
-        <v>38.528371080975298</v>
+        <v>26.6291495037304</v>
       </c>
       <c r="E65">
-        <v>0.67716046267976404</v>
+        <v>0.79763352755470396</v>
       </c>
       <c r="F65" t="s">
         <v>17</v>
@@ -2690,16 +2669,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>26.892238725098899</v>
+        <v>15.175020758932501</v>
       </c>
       <c r="C66">
-        <v>6.6649580931121504</v>
+        <v>4.3810569950149203</v>
       </c>
       <c r="D66">
-        <v>35.181535875665901</v>
+        <v>20.929723494619601</v>
       </c>
       <c r="E66">
-        <v>0.73136234844271697</v>
+        <v>0.87689890934570602</v>
       </c>
       <c r="F66" t="s">
         <v>17</v>
@@ -2713,25 +2692,25 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="B67">
-        <v>33.486311710202003</v>
+        <v>24.545620746333601</v>
       </c>
       <c r="C67">
-        <v>7.7376714096830002</v>
+        <v>6.8995399050614097</v>
       </c>
       <c r="D67">
-        <v>43.352701227972801</v>
+        <v>33.5728684901759</v>
       </c>
       <c r="E67">
-        <v>0.58665604202080002</v>
+        <v>0.657018075808252</v>
       </c>
       <c r="F67" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="G67" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H67" t="s">
         <v>9</v>
@@ -2742,16 +2721,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>28.205760470594001</v>
+        <v>16.691239634576</v>
       </c>
       <c r="C68">
-        <v>6.8905194149773399</v>
+        <v>4.7608609784800198</v>
       </c>
       <c r="D68">
-        <v>36.835635267213398</v>
+        <v>23.021421665392101</v>
       </c>
       <c r="E68">
-        <v>0.70490506986132295</v>
+        <v>0.84875248476449305</v>
       </c>
       <c r="F68" t="s">
         <v>17</v>
@@ -2768,16 +2747,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>31.396765095467099</v>
+        <v>15.742183625808201</v>
       </c>
       <c r="C69">
-        <v>7.7558748408518197</v>
+        <v>4.5496568981774503</v>
       </c>
       <c r="D69">
-        <v>40.623803051688398</v>
+        <v>21.894817134152301</v>
       </c>
       <c r="E69">
-        <v>0.64182237839981404</v>
+        <v>0.86528450115098798</v>
       </c>
       <c r="F69" t="s">
         <v>17</v>
@@ -2791,25 +2770,25 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="B70">
-        <v>33.614254844126997</v>
+        <v>24.644633895743201</v>
       </c>
       <c r="C70">
-        <v>7.8485677884673901</v>
+        <v>6.9420019665714001</v>
       </c>
       <c r="D70">
-        <v>43.246415155042598</v>
+        <v>33.072412236966997</v>
       </c>
       <c r="E70">
-        <v>0.58868031505553298</v>
+        <v>0.66716723012019896</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G70" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H70" t="s">
         <v>9</v>
@@ -2820,16 +2799,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>32.080797514276398</v>
+        <v>17.140193925873</v>
       </c>
       <c r="C71">
-        <v>7.8320330431811804</v>
+        <v>4.8986844591239702</v>
       </c>
       <c r="D71">
-        <v>41.458568365433301</v>
+        <v>23.795692477614899</v>
       </c>
       <c r="E71">
-        <v>0.626187325761415</v>
+        <v>0.83840769909169599</v>
       </c>
       <c r="F71" t="s">
         <v>17</v>
@@ -2846,16 +2825,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>30.327098147550199</v>
+        <v>18.027374844636601</v>
       </c>
       <c r="C72">
-        <v>7.48598964404023</v>
+        <v>5.2197247133686302</v>
       </c>
       <c r="D72">
-        <v>39.040564963125298</v>
+        <v>24.760846777215299</v>
       </c>
       <c r="E72">
-        <v>0.669196969246595</v>
+        <v>0.82770768579237097</v>
       </c>
       <c r="F72" t="s">
         <v>17</v>
@@ -2869,25 +2848,25 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
+        <v>35</v>
+      </c>
+      <c r="B73">
+        <v>24.816278078545398</v>
+      </c>
+      <c r="C73">
+        <v>6.8976671226542798</v>
+      </c>
+      <c r="D73">
+        <v>32.431823571498697</v>
+      </c>
+      <c r="E73">
+        <v>0.67993582089631799</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73" t="s">
         <v>14</v>
-      </c>
-      <c r="B73">
-        <v>33.741880721110903</v>
-      </c>
-      <c r="C73">
-        <v>7.8265413345118597</v>
-      </c>
-      <c r="D73">
-        <v>43.665641133364801</v>
-      </c>
-      <c r="E73">
-        <v>0.58066708741633599</v>
-      </c>
-      <c r="F73" t="s">
-        <v>7</v>
-      </c>
-      <c r="G73" t="s">
-        <v>13</v>
       </c>
       <c r="H73" t="s">
         <v>9</v>
@@ -2898,16 +2877,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>30.984529486865501</v>
+        <v>19.099950746383499</v>
       </c>
       <c r="C74">
-        <v>7.5585052729256601</v>
+        <v>5.4820716241229404</v>
       </c>
       <c r="D74">
-        <v>39.917202492966197</v>
+        <v>26.383307792788901</v>
       </c>
       <c r="E74">
-        <v>0.65346618938287504</v>
+        <v>0.80135279556608197</v>
       </c>
       <c r="F74" t="s">
         <v>17</v>
@@ -2924,16 +2903,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>24.414867203852999</v>
+        <v>13.9093130680822</v>
       </c>
       <c r="C75">
-        <v>6.0624295876804597</v>
+        <v>4.03632798734826</v>
       </c>
       <c r="D75">
-        <v>33.013225212742299</v>
+        <v>19.924927228541701</v>
       </c>
       <c r="E75">
-        <v>0.76345531103983899</v>
+        <v>0.88843488772667401</v>
       </c>
       <c r="F75" t="s">
         <v>18</v>
@@ -2947,25 +2926,25 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B76">
-        <v>33.932670529883403</v>
+        <v>26.235112863854901</v>
       </c>
       <c r="C76">
-        <v>7.8788012630069897</v>
+        <v>7.2315439119442102</v>
       </c>
       <c r="D76">
-        <v>43.845431391904299</v>
+        <v>35.223750054141902</v>
       </c>
       <c r="E76">
-        <v>0.57720682981220905</v>
+        <v>0.62245778850793199</v>
       </c>
       <c r="F76" t="s">
         <v>7</v>
       </c>
       <c r="G76" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H76" t="s">
         <v>9</v>
@@ -2976,16 +2955,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>25.6516765428185</v>
+        <v>15.498663156943699</v>
       </c>
       <c r="C77">
-        <v>6.2732837509187203</v>
+        <v>4.4370521122836504</v>
       </c>
       <c r="D77">
-        <v>35.004438689287198</v>
+        <v>22.1136730421977</v>
       </c>
       <c r="E77">
-        <v>0.73351568259059297</v>
+        <v>0.86044489182317696</v>
       </c>
       <c r="F77" t="s">
         <v>18</v>
@@ -3002,16 +2981,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>21.589155299690301</v>
+        <v>16.044410267467502</v>
       </c>
       <c r="C78">
-        <v>5.3865981605393003</v>
+        <v>4.6767521925698201</v>
       </c>
       <c r="D78">
-        <v>29.067266636886401</v>
+        <v>22.716812529028399</v>
       </c>
       <c r="E78">
-        <v>0.81662265474826201</v>
+        <v>0.854979396849183</v>
       </c>
       <c r="F78" t="s">
         <v>18</v>
@@ -3025,25 +3004,25 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B79">
-        <v>33.9458085748728</v>
+        <v>26.644558934887399</v>
       </c>
       <c r="C79">
-        <v>7.8357908842087198</v>
+        <v>7.3014153704882103</v>
       </c>
       <c r="D79">
-        <v>43.568809981683998</v>
+        <v>35.071686971286702</v>
       </c>
       <c r="E79">
-        <v>0.58252481657720401</v>
+        <v>0.625710497873466</v>
       </c>
       <c r="F79" t="s">
         <v>7</v>
       </c>
       <c r="G79" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
         <v>9</v>
@@ -3054,16 +3033,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>23.459822247221901</v>
+        <v>17.078573039532099</v>
       </c>
       <c r="C80">
-        <v>5.7359680993945101</v>
+        <v>4.9342629878827404</v>
       </c>
       <c r="D80">
-        <v>31.995265867501299</v>
+        <v>24.209232153980398</v>
       </c>
       <c r="E80">
-        <v>0.77736324332742002</v>
+        <v>0.83274234648440104</v>
       </c>
       <c r="F80" t="s">
         <v>18</v>
@@ -3080,16 +3059,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>24.770018553178001</v>
+        <v>15.296294003373101</v>
       </c>
       <c r="C81">
-        <v>6.1727408550749097</v>
+        <v>4.4211071819815304</v>
       </c>
       <c r="D81">
-        <v>32.947471998346998</v>
+        <v>21.140864403593302</v>
       </c>
       <c r="E81">
-        <v>0.76439663587790396</v>
+        <v>0.87440267193944998</v>
       </c>
       <c r="F81" t="s">
         <v>18</v>
@@ -3103,25 +3082,25 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="B82">
-        <v>34.468550738273997</v>
+        <v>27.195946597637899</v>
       </c>
       <c r="C82">
-        <v>8.0626482641307309</v>
+        <v>7.5558304996737098</v>
       </c>
       <c r="D82">
-        <v>44.030951334939402</v>
+        <v>36.1818198544211</v>
       </c>
       <c r="E82">
-        <v>0.57362139325555395</v>
+        <v>0.60164052812125501</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G82" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H82" t="s">
         <v>9</v>
@@ -3132,16 +3111,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>26.2736267307803</v>
+        <v>16.778509050667601</v>
       </c>
       <c r="C83">
-        <v>6.4372874835595697</v>
+        <v>4.7929734450066404</v>
       </c>
       <c r="D83">
-        <v>35.034115898277001</v>
+        <v>23.356750661240401</v>
       </c>
       <c r="E83">
-        <v>0.73306363344799197</v>
+        <v>0.84431426597343495</v>
       </c>
       <c r="F83" t="s">
         <v>18</v>
@@ -3158,16 +3137,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>25.758118549789099</v>
+        <v>20.1258066361315</v>
       </c>
       <c r="C84">
-        <v>6.3969230863366002</v>
+        <v>5.8535657840277802</v>
       </c>
       <c r="D84">
-        <v>33.705745987314998</v>
+        <v>28.0913777650848</v>
       </c>
       <c r="E84">
-        <v>0.75342719295624405</v>
+        <v>0.77824113040977005</v>
       </c>
       <c r="F84" t="s">
         <v>18</v>
@@ -3181,25 +3160,25 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B85">
-        <v>34.778576979584301</v>
+        <v>27.576882680279301</v>
       </c>
       <c r="C85">
-        <v>8.08719364259405</v>
+        <v>7.6206298375805899</v>
       </c>
       <c r="D85">
-        <v>44.663129250907602</v>
+        <v>36.790922197275798</v>
       </c>
       <c r="E85">
-        <v>0.56128996942163201</v>
+        <v>0.58811527910608197</v>
       </c>
       <c r="F85" t="s">
         <v>7</v>
       </c>
       <c r="G85" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H85" t="s">
         <v>9</v>
@@ -3210,16 +3189,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>27.194050478545599</v>
+        <v>21.009769458171998</v>
       </c>
       <c r="C86">
-        <v>6.6521122815891696</v>
+        <v>6.0627606082345098</v>
       </c>
       <c r="D86">
-        <v>35.727163598933402</v>
+        <v>29.269914648394298</v>
       </c>
       <c r="E86">
-        <v>0.72239805967191795</v>
+        <v>0.75550674551539299</v>
       </c>
       <c r="F86" t="s">
         <v>18</v>
@@ -3236,16 +3215,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>28.394992733118801</v>
+        <v>17.550333113953801</v>
       </c>
       <c r="C87">
-        <v>7.0391401229982096</v>
+        <v>5.0663995590019502</v>
       </c>
       <c r="D87">
-        <v>36.9635165292135</v>
+        <v>24.2857104461382</v>
       </c>
       <c r="E87">
-        <v>0.70345960986658296</v>
+        <v>0.83425648518048701</v>
       </c>
       <c r="F87" t="s">
         <v>18</v>
@@ -3259,25 +3238,25 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B88">
-        <v>34.8169271895135</v>
+        <v>28.004088189846399</v>
       </c>
       <c r="C88">
-        <v>8.1366658524985898</v>
+        <v>7.8651276030959396</v>
       </c>
       <c r="D88">
-        <v>44.641807277786903</v>
+        <v>38.1016167873493</v>
       </c>
       <c r="E88">
-        <v>0.56170874575097696</v>
+        <v>0.55824533602830495</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H88" t="s">
         <v>9</v>
@@ -3288,16 +3267,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>29.379749140244201</v>
+        <v>18.482970737974199</v>
       </c>
       <c r="C89">
-        <v>7.18364872259016</v>
+        <v>5.2939738076412404</v>
       </c>
       <c r="D89">
-        <v>38.355305415052499</v>
+        <v>25.620773343348102</v>
       </c>
       <c r="E89">
-        <v>0.68005427579399302</v>
+        <v>0.81266952324966901</v>
       </c>
       <c r="F89" t="s">
         <v>18</v>
@@ -3314,16 +3293,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>27.721350059816501</v>
+        <v>15.554266877238399</v>
       </c>
       <c r="C90">
-        <v>6.8391294070469204</v>
+        <v>4.5088153354074896</v>
       </c>
       <c r="D90">
-        <v>35.730700776478002</v>
+        <v>21.587632993193399</v>
       </c>
       <c r="E90">
-        <v>0.72291031419742802</v>
+        <v>0.86903809878837102</v>
       </c>
       <c r="F90" t="s">
         <v>18</v>
@@ -3340,16 +3319,16 @@
         <v>11</v>
       </c>
       <c r="B91">
-        <v>36.270290810491304</v>
+        <v>28.090419189646799</v>
       </c>
       <c r="C91">
-        <v>8.4991341060534609</v>
+        <v>7.8347891985166598</v>
       </c>
       <c r="D91">
-        <v>45.844699585591599</v>
+        <v>37.714288404373399</v>
       </c>
       <c r="E91">
-        <v>0.53777063681641302</v>
+        <v>0.567181147166677</v>
       </c>
       <c r="F91" t="s">
         <v>7</v>
@@ -3366,16 +3345,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>28.6600522838764</v>
+        <v>16.898752327697299</v>
       </c>
       <c r="C92">
-        <v>6.9822320944013496</v>
+        <v>4.8531524126999797</v>
       </c>
       <c r="D92">
-        <v>37.136275348973101</v>
+        <v>23.5910031343032</v>
       </c>
       <c r="E92">
-        <v>0.70006848138174804</v>
+        <v>0.84117575990722804</v>
       </c>
       <c r="F92" t="s">
         <v>18</v>
@@ -3388,7 +3367,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H92">
+  <autoFilter ref="A1:H92" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <colorFilter dxfId="0"/>
     </filterColumn>
